--- a/natmiOut/YoungD2/LR-pairs_lrc2p/F2-Gp9.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/F2-Gp9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,12 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Gp9</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H2">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I2">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J2">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.86601095216546</v>
+        <v>0.498887</v>
       </c>
       <c r="N2">
-        <v>1.86601095216546</v>
+        <v>1.496661</v>
       </c>
       <c r="O2">
-        <v>0.1073463272707091</v>
+        <v>0.02648427274171232</v>
       </c>
       <c r="P2">
-        <v>0.1073463272707091</v>
+        <v>0.02648427274171232</v>
       </c>
       <c r="Q2">
-        <v>0.5644186204423455</v>
+        <v>0.2062959274396667</v>
       </c>
       <c r="R2">
-        <v>0.5644186204423455</v>
+        <v>1.856663346957</v>
       </c>
       <c r="S2">
-        <v>0.02080799472811666</v>
+        <v>0.005617595415159407</v>
       </c>
       <c r="T2">
-        <v>0.02080799472811666</v>
+        <v>0.005617595415159408</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H3">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I3">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J3">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.36009660121309</v>
+        <v>1.885272666666667</v>
       </c>
       <c r="N3">
-        <v>4.36009660121309</v>
+        <v>5.655818</v>
       </c>
       <c r="O3">
-        <v>0.2508240137297036</v>
+        <v>0.1000829356076532</v>
       </c>
       <c r="P3">
-        <v>0.2508240137297036</v>
+        <v>0.1000829356076532</v>
       </c>
       <c r="Q3">
-        <v>1.318813110821357</v>
+        <v>0.7795834993628888</v>
       </c>
       <c r="R3">
-        <v>1.318813110821357</v>
+        <v>7.016251494266</v>
       </c>
       <c r="S3">
-        <v>0.04861968628149658</v>
+        <v>0.02122865315911622</v>
       </c>
       <c r="T3">
-        <v>0.04861968628149658</v>
+        <v>0.02122865315911623</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H4">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I4">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J4">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.02675477450771</v>
+        <v>4.766192666666667</v>
       </c>
       <c r="N4">
-        <v>5.02675477450771</v>
+        <v>14.298578</v>
       </c>
       <c r="O4">
-        <v>0.2891749710834801</v>
+        <v>0.2530215189482771</v>
       </c>
       <c r="P4">
-        <v>0.2891749710834801</v>
+        <v>0.2530215189482771</v>
       </c>
       <c r="Q4">
-        <v>1.520459454880005</v>
+        <v>1.970879450709556</v>
       </c>
       <c r="R4">
-        <v>1.520459454880005</v>
+        <v>17.737915056386</v>
       </c>
       <c r="S4">
-        <v>0.05605362965641216</v>
+        <v>0.05366855033711653</v>
       </c>
       <c r="T4">
-        <v>0.05605362965641216</v>
+        <v>0.05366855033711654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H5">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I5">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J5">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.13022845508668</v>
+        <v>5.344902666666667</v>
       </c>
       <c r="N5">
-        <v>6.13022845508668</v>
+        <v>16.034708</v>
       </c>
       <c r="O5">
-        <v>0.352654687916107</v>
+        <v>0.2837433326623173</v>
       </c>
       <c r="P5">
-        <v>0.352654687916107</v>
+        <v>0.2837433326623173</v>
       </c>
       <c r="Q5">
-        <v>1.854230857327591</v>
+        <v>2.210183173132889</v>
       </c>
       <c r="R5">
-        <v>1.854230857327591</v>
+        <v>19.891648558196</v>
       </c>
       <c r="S5">
-        <v>0.06835852770722849</v>
+        <v>0.0601849731797781</v>
       </c>
       <c r="T5">
-        <v>0.06835852770722849</v>
+        <v>0.06018497317977811</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.588235452090426</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H6">
-        <v>0.588235452090426</v>
+        <v>1.240537</v>
       </c>
       <c r="I6">
-        <v>0.3769702605663502</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J6">
-        <v>0.3769702605663502</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.86601095216546</v>
+        <v>6.253313666666667</v>
       </c>
       <c r="N6">
-        <v>1.86601095216546</v>
+        <v>18.759941</v>
       </c>
       <c r="O6">
-        <v>0.1073463272707091</v>
+        <v>0.3319678898978669</v>
       </c>
       <c r="P6">
-        <v>0.1073463272707091</v>
+        <v>0.3319678898978669</v>
       </c>
       <c r="Q6">
-        <v>1.097653796052736</v>
+        <v>2.585822325368555</v>
       </c>
       <c r="R6">
-        <v>1.097653796052736</v>
+        <v>23.272400928317</v>
       </c>
       <c r="S6">
-        <v>0.04046637296207991</v>
+        <v>0.07041391373882327</v>
       </c>
       <c r="T6">
-        <v>0.04046637296207991</v>
+        <v>0.07041391373882329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.588235452090426</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H7">
-        <v>0.588235452090426</v>
+        <v>1.240537</v>
       </c>
       <c r="I7">
-        <v>0.3769702605663502</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J7">
-        <v>0.3769702605663502</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>4.36009660121309</v>
+        <v>0.08853533333333334</v>
       </c>
       <c r="N7">
-        <v>4.36009660121309</v>
+        <v>0.265606</v>
       </c>
       <c r="O7">
-        <v>0.2508240137297036</v>
+        <v>0.004700050142173305</v>
       </c>
       <c r="P7">
-        <v>0.2508240137297036</v>
+        <v>0.004700050142173305</v>
       </c>
       <c r="Q7">
-        <v>2.564763395372512</v>
+        <v>0.03661045226911111</v>
       </c>
       <c r="R7">
-        <v>2.564763395372512</v>
+        <v>0.329494070422</v>
       </c>
       <c r="S7">
-        <v>0.0945531938119842</v>
+        <v>0.0009969305325914348</v>
       </c>
       <c r="T7">
-        <v>0.0945531938119842</v>
+        <v>0.000996930532591435</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H8">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I8">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J8">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>5.02675477450771</v>
+        <v>0.498887</v>
       </c>
       <c r="N8">
-        <v>5.02675477450771</v>
+        <v>1.496661</v>
       </c>
       <c r="O8">
-        <v>0.2891749710834801</v>
+        <v>0.02648427274171232</v>
       </c>
       <c r="P8">
-        <v>0.2891749710834801</v>
+        <v>0.02648427274171232</v>
       </c>
       <c r="Q8">
-        <v>2.95691536733025</v>
+        <v>0.3012141680596667</v>
       </c>
       <c r="R8">
-        <v>2.95691536733025</v>
+        <v>2.710927512537</v>
       </c>
       <c r="S8">
-        <v>0.1090103641986063</v>
+        <v>0.00820229148715459</v>
       </c>
       <c r="T8">
-        <v>0.1090103641986063</v>
+        <v>0.008202291487154591</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,557 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H9">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I9">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J9">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.13022845508668</v>
+        <v>1.885272666666667</v>
       </c>
       <c r="N9">
-        <v>6.13022845508668</v>
+        <v>5.655818</v>
       </c>
       <c r="O9">
-        <v>0.352654687916107</v>
+        <v>0.1000829356076532</v>
       </c>
       <c r="P9">
-        <v>0.352654687916107</v>
+        <v>0.1000829356076532</v>
       </c>
       <c r="Q9">
-        <v>3.606017706695507</v>
+        <v>1.138275476922889</v>
       </c>
       <c r="R9">
-        <v>3.606017706695507</v>
+        <v>10.244479292306</v>
       </c>
       <c r="S9">
-        <v>0.1329403295936798</v>
+        <v>0.03099610922867349</v>
       </c>
       <c r="T9">
-        <v>0.1329403295936798</v>
+        <v>0.0309961092286735</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.277272456976033</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H10">
-        <v>0.277272456976033</v>
+        <v>1.811317</v>
       </c>
       <c r="I10">
-        <v>0.1776898518827449</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J10">
-        <v>0.1776898518827449</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.86601095216546</v>
+        <v>4.766192666666667</v>
       </c>
       <c r="N10">
-        <v>1.86601095216546</v>
+        <v>14.298578</v>
       </c>
       <c r="O10">
-        <v>0.1073463272707091</v>
+        <v>0.2530215189482771</v>
       </c>
       <c r="P10">
-        <v>0.1073463272707091</v>
+        <v>0.2530215189482771</v>
       </c>
       <c r="Q10">
-        <v>0.5173934414511039</v>
+        <v>2.877695267469556</v>
       </c>
       <c r="R10">
-        <v>0.5173934414511039</v>
+        <v>25.899257407226</v>
       </c>
       <c r="S10">
-        <v>0.01907435299288895</v>
+        <v>0.07836183651997071</v>
       </c>
       <c r="T10">
-        <v>0.01907435299288895</v>
+        <v>0.07836183651997072</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.277272456976033</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H11">
-        <v>0.277272456976033</v>
+        <v>1.811317</v>
       </c>
       <c r="I11">
-        <v>0.1776898518827449</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J11">
-        <v>0.1776898518827449</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.36009660121309</v>
+        <v>5.344902666666667</v>
       </c>
       <c r="N11">
-        <v>4.36009660121309</v>
+        <v>16.034708</v>
       </c>
       <c r="O11">
-        <v>0.2508240137297036</v>
+        <v>0.2837433326623173</v>
       </c>
       <c r="P11">
-        <v>0.2508240137297036</v>
+        <v>0.2837433326623173</v>
       </c>
       <c r="Q11">
-        <v>1.208934697271204</v>
+        <v>3.227104354492889</v>
       </c>
       <c r="R11">
-        <v>1.208934697271204</v>
+        <v>29.043939190436</v>
       </c>
       <c r="S11">
-        <v>0.04456888184826661</v>
+        <v>0.08787651240154556</v>
       </c>
       <c r="T11">
-        <v>0.04456888184826661</v>
+        <v>0.08787651240154559</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.277272456976033</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H12">
-        <v>0.277272456976033</v>
+        <v>1.811317</v>
       </c>
       <c r="I12">
-        <v>0.1776898518827449</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J12">
-        <v>0.1776898518827449</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.02675477450771</v>
+        <v>6.253313666666667</v>
       </c>
       <c r="N12">
-        <v>5.02675477450771</v>
+        <v>18.759941</v>
       </c>
       <c r="O12">
-        <v>0.2891749710834801</v>
+        <v>0.3319678898978669</v>
       </c>
       <c r="P12">
-        <v>0.2891749710834801</v>
+        <v>0.3319678898978669</v>
       </c>
       <c r="Q12">
-        <v>1.393780646943757</v>
+        <v>3.775577783588556</v>
       </c>
       <c r="R12">
-        <v>1.393780646943757</v>
+        <v>33.980200052297</v>
       </c>
       <c r="S12">
-        <v>0.05138345778002062</v>
+        <v>0.1028118621142813</v>
       </c>
       <c r="T12">
-        <v>0.05138345778002062</v>
+        <v>0.1028118621142813</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.277272456976033</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H13">
-        <v>0.277272456976033</v>
+        <v>1.811317</v>
       </c>
       <c r="I13">
-        <v>0.1776898518827449</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J13">
-        <v>0.1776898518827449</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>6.13022845508668</v>
+        <v>0.08853533333333334</v>
       </c>
       <c r="N13">
-        <v>6.13022845508668</v>
+        <v>0.265606</v>
       </c>
       <c r="O13">
-        <v>0.352654687916107</v>
+        <v>0.004700050142173305</v>
       </c>
       <c r="P13">
-        <v>0.352654687916107</v>
+        <v>0.004700050142173305</v>
       </c>
       <c r="Q13">
-        <v>1.699743505566275</v>
+        <v>0.05345518478911112</v>
       </c>
       <c r="R13">
-        <v>1.699743505566275</v>
+        <v>0.4810966631020001</v>
       </c>
       <c r="S13">
-        <v>0.06266315926156868</v>
+        <v>0.001455625444063273</v>
       </c>
       <c r="T13">
-        <v>0.06266315926156868</v>
+        <v>0.001455625444063273</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.392448053877027</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H14">
-        <v>0.392448053877027</v>
+        <v>0.903572</v>
       </c>
       <c r="I14">
-        <v>0.251500049177651</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J14">
-        <v>0.251500049177651</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.86601095216546</v>
+        <v>0.498887</v>
       </c>
       <c r="N14">
-        <v>1.86601095216546</v>
+        <v>1.496661</v>
       </c>
       <c r="O14">
-        <v>0.1073463272707091</v>
+        <v>0.02648427274171232</v>
       </c>
       <c r="P14">
-        <v>0.1073463272707091</v>
+        <v>0.02648427274171232</v>
       </c>
       <c r="Q14">
-        <v>0.7323123666905529</v>
+        <v>0.1502601081213333</v>
       </c>
       <c r="R14">
-        <v>0.7323123666905529</v>
+        <v>1.352340973092</v>
       </c>
       <c r="S14">
-        <v>0.02699760658762355</v>
+        <v>0.004091697325002331</v>
       </c>
       <c r="T14">
-        <v>0.02699760658762355</v>
+        <v>0.004091697325002332</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.392448053877027</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H15">
-        <v>0.392448053877027</v>
+        <v>0.903572</v>
       </c>
       <c r="I15">
-        <v>0.251500049177651</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J15">
-        <v>0.251500049177651</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.36009660121309</v>
+        <v>1.885272666666667</v>
       </c>
       <c r="N15">
-        <v>4.36009660121309</v>
+        <v>5.655818</v>
       </c>
       <c r="O15">
-        <v>0.2508240137297036</v>
+        <v>0.1000829356076532</v>
       </c>
       <c r="P15">
-        <v>0.2508240137297036</v>
+        <v>0.1000829356076532</v>
       </c>
       <c r="Q15">
-        <v>1.711111425861917</v>
+        <v>0.5678265313217777</v>
       </c>
       <c r="R15">
-        <v>1.711111425861917</v>
+        <v>5.110438781896001</v>
       </c>
       <c r="S15">
-        <v>0.06308225178795628</v>
+        <v>0.0154623494440625</v>
       </c>
       <c r="T15">
-        <v>0.06308225178795628</v>
+        <v>0.01546234944406251</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.392448053877027</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H16">
-        <v>0.392448053877027</v>
+        <v>0.903572</v>
       </c>
       <c r="I16">
-        <v>0.251500049177651</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J16">
-        <v>0.251500049177651</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.02675477450771</v>
+        <v>4.766192666666667</v>
       </c>
       <c r="N16">
-        <v>5.02675477450771</v>
+        <v>14.298578</v>
       </c>
       <c r="O16">
-        <v>0.2891749710834801</v>
+        <v>0.2530215189482771</v>
       </c>
       <c r="P16">
-        <v>0.2891749710834801</v>
+        <v>0.2530215189482771</v>
       </c>
       <c r="Q16">
-        <v>1.972740128572605</v>
+        <v>1.435532746735111</v>
       </c>
       <c r="R16">
-        <v>1.972740128572605</v>
+        <v>12.919794720616</v>
       </c>
       <c r="S16">
-        <v>0.07272751944844105</v>
+        <v>0.03909065135921706</v>
       </c>
       <c r="T16">
-        <v>0.07272751944844105</v>
+        <v>0.03909065135921707</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3011906666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.903572</v>
+      </c>
+      <c r="I17">
+        <v>0.1544953627727134</v>
+      </c>
+      <c r="J17">
+        <v>0.1544953627727135</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.344902666666667</v>
+      </c>
+      <c r="N17">
+        <v>16.034708</v>
+      </c>
+      <c r="O17">
+        <v>0.2837433326623173</v>
+      </c>
+      <c r="P17">
+        <v>0.2837433326623173</v>
+      </c>
+      <c r="Q17">
+        <v>1.609834797441778</v>
+      </c>
+      <c r="R17">
+        <v>14.488513176976</v>
+      </c>
+      <c r="S17">
+        <v>0.04383702911400342</v>
+      </c>
+      <c r="T17">
+        <v>0.04383702911400342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3011906666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.903572</v>
+      </c>
+      <c r="I18">
+        <v>0.1544953627727134</v>
+      </c>
+      <c r="J18">
+        <v>0.1544953627727135</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.253313666666667</v>
+      </c>
+      <c r="N18">
+        <v>18.759941</v>
+      </c>
+      <c r="O18">
+        <v>0.3319678898978669</v>
+      </c>
+      <c r="P18">
+        <v>0.3319678898978669</v>
+      </c>
+      <c r="Q18">
+        <v>1.883439712139111</v>
+      </c>
+      <c r="R18">
+        <v>16.950957409252</v>
+      </c>
+      <c r="S18">
+        <v>0.05128749957866313</v>
+      </c>
+      <c r="T18">
+        <v>0.05128749957866315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.392448053877027</v>
-      </c>
-      <c r="H17">
-        <v>0.392448053877027</v>
-      </c>
-      <c r="I17">
-        <v>0.251500049177651</v>
-      </c>
-      <c r="J17">
-        <v>0.251500049177651</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>6.13022845508668</v>
-      </c>
-      <c r="N17">
-        <v>6.13022845508668</v>
-      </c>
-      <c r="O17">
-        <v>0.352654687916107</v>
-      </c>
-      <c r="P17">
-        <v>0.352654687916107</v>
-      </c>
-      <c r="Q17">
-        <v>2.405796227020342</v>
-      </c>
-      <c r="R17">
-        <v>2.405796227020342</v>
-      </c>
-      <c r="S17">
-        <v>0.08869267135363008</v>
-      </c>
-      <c r="T17">
-        <v>0.08869267135363008</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3011906666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.903572</v>
+      </c>
+      <c r="I19">
+        <v>0.1544953627727134</v>
+      </c>
+      <c r="J19">
+        <v>0.1544953627727135</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.08853533333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.265606</v>
+      </c>
+      <c r="O19">
+        <v>0.004700050142173305</v>
+      </c>
+      <c r="P19">
+        <v>0.004700050142173305</v>
+      </c>
+      <c r="Q19">
+        <v>0.02666601607022222</v>
+      </c>
+      <c r="R19">
+        <v>0.239994144632</v>
+      </c>
+      <c r="S19">
+        <v>0.0007261359517650082</v>
+      </c>
+      <c r="T19">
+        <v>0.0007261359517650083</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1320703333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.396211</v>
+      </c>
+      <c r="I20">
+        <v>0.06774530660483012</v>
+      </c>
+      <c r="J20">
+        <v>0.06774530660483014</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.498887</v>
+      </c>
+      <c r="N20">
+        <v>1.496661</v>
+      </c>
+      <c r="O20">
+        <v>0.02648427274171232</v>
+      </c>
+      <c r="P20">
+        <v>0.02648427274171232</v>
+      </c>
+      <c r="Q20">
+        <v>0.06588817238566666</v>
+      </c>
+      <c r="R20">
+        <v>0.592993551471</v>
+      </c>
+      <c r="S20">
+        <v>0.001794185177093246</v>
+      </c>
+      <c r="T20">
+        <v>0.001794185177093246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1320703333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.396211</v>
+      </c>
+      <c r="I21">
+        <v>0.06774530660483012</v>
+      </c>
+      <c r="J21">
+        <v>0.06774530660483014</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.885272666666667</v>
+      </c>
+      <c r="N21">
+        <v>5.655818</v>
+      </c>
+      <c r="O21">
+        <v>0.1000829356076532</v>
+      </c>
+      <c r="P21">
+        <v>0.1000829356076532</v>
+      </c>
+      <c r="Q21">
+        <v>0.2489885895108888</v>
+      </c>
+      <c r="R21">
+        <v>2.240897305598</v>
+      </c>
+      <c r="S21">
+        <v>0.006780149158651936</v>
+      </c>
+      <c r="T21">
+        <v>0.006780149158651939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.1320703333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.396211</v>
+      </c>
+      <c r="I22">
+        <v>0.06774530660483012</v>
+      </c>
+      <c r="J22">
+        <v>0.06774530660483014</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.766192666666667</v>
+      </c>
+      <c r="N22">
+        <v>14.298578</v>
+      </c>
+      <c r="O22">
+        <v>0.2530215189482771</v>
+      </c>
+      <c r="P22">
+        <v>0.2530215189482771</v>
+      </c>
+      <c r="Q22">
+        <v>0.6294726542175555</v>
+      </c>
+      <c r="R22">
+        <v>5.665253887958</v>
+      </c>
+      <c r="S22">
+        <v>0.01714102037877087</v>
+      </c>
+      <c r="T22">
+        <v>0.01714102037877087</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.1320703333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.396211</v>
+      </c>
+      <c r="I23">
+        <v>0.06774530660483012</v>
+      </c>
+      <c r="J23">
+        <v>0.06774530660483014</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.344902666666667</v>
+      </c>
+      <c r="N23">
+        <v>16.034708</v>
+      </c>
+      <c r="O23">
+        <v>0.2837433326623173</v>
+      </c>
+      <c r="P23">
+        <v>0.2837433326623173</v>
+      </c>
+      <c r="Q23">
+        <v>0.7059030768208888</v>
+      </c>
+      <c r="R23">
+        <v>6.353127691388001</v>
+      </c>
+      <c r="S23">
+        <v>0.01922227906828499</v>
+      </c>
+      <c r="T23">
+        <v>0.019222279068285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.1320703333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.396211</v>
+      </c>
+      <c r="I24">
+        <v>0.06774530660483012</v>
+      </c>
+      <c r="J24">
+        <v>0.06774530660483014</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.253313666666667</v>
+      </c>
+      <c r="N24">
+        <v>18.759941</v>
+      </c>
+      <c r="O24">
+        <v>0.3319678898978669</v>
+      </c>
+      <c r="P24">
+        <v>0.3319678898978669</v>
+      </c>
+      <c r="Q24">
+        <v>0.8258772203945555</v>
+      </c>
+      <c r="R24">
+        <v>7.432894983551</v>
+      </c>
+      <c r="S24">
+        <v>0.02248926648408948</v>
+      </c>
+      <c r="T24">
+        <v>0.02248926648408948</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1320703333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.396211</v>
+      </c>
+      <c r="I25">
+        <v>0.06774530660483012</v>
+      </c>
+      <c r="J25">
+        <v>0.06774530660483014</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.08853533333333334</v>
+      </c>
+      <c r="N25">
+        <v>0.265606</v>
+      </c>
+      <c r="O25">
+        <v>0.004700050142173305</v>
+      </c>
+      <c r="P25">
+        <v>0.004700050142173305</v>
+      </c>
+      <c r="Q25">
+        <v>0.01169289098511111</v>
+      </c>
+      <c r="R25">
+        <v>0.105236018866</v>
+      </c>
+      <c r="S25">
+        <v>0.000318406337939606</v>
+      </c>
+      <c r="T25">
+        <v>0.000318406337939606</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.223082</v>
+      </c>
+      <c r="I26">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J26">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.498887</v>
+      </c>
+      <c r="N26">
+        <v>1.496661</v>
+      </c>
+      <c r="O26">
+        <v>0.02648427274171232</v>
+      </c>
+      <c r="P26">
+        <v>0.02648427274171232</v>
+      </c>
+      <c r="Q26">
+        <v>0.03709756991133334</v>
+      </c>
+      <c r="R26">
+        <v>0.333878129202</v>
+      </c>
+      <c r="S26">
+        <v>0.001010195117440746</v>
+      </c>
+      <c r="T26">
+        <v>0.001010195117440746</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.223082</v>
+      </c>
+      <c r="I27">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J27">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.885272666666667</v>
+      </c>
+      <c r="N27">
+        <v>5.655818</v>
+      </c>
+      <c r="O27">
+        <v>0.1000829356076532</v>
+      </c>
+      <c r="P27">
+        <v>0.1000829356076532</v>
+      </c>
+      <c r="Q27">
+        <v>0.1401901323417778</v>
+      </c>
+      <c r="R27">
+        <v>1.261711191076</v>
+      </c>
+      <c r="S27">
+        <v>0.003817484205664132</v>
+      </c>
+      <c r="T27">
+        <v>0.003817484205664133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.223082</v>
+      </c>
+      <c r="I28">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J28">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>4.766192666666667</v>
+      </c>
+      <c r="N28">
+        <v>14.298578</v>
+      </c>
+      <c r="O28">
+        <v>0.2530215189482771</v>
+      </c>
+      <c r="P28">
+        <v>0.2530215189482771</v>
+      </c>
+      <c r="Q28">
+        <v>0.3544172641551112</v>
+      </c>
+      <c r="R28">
+        <v>3.189755377396</v>
+      </c>
+      <c r="S28">
+        <v>0.009651052363859065</v>
+      </c>
+      <c r="T28">
+        <v>0.009651052363859065</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.223082</v>
+      </c>
+      <c r="I29">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J29">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>5.344902666666667</v>
+      </c>
+      <c r="N29">
+        <v>16.034708</v>
+      </c>
+      <c r="O29">
+        <v>0.2837433326623173</v>
+      </c>
+      <c r="P29">
+        <v>0.2837433326623173</v>
+      </c>
+      <c r="Q29">
+        <v>0.3974505255617778</v>
+      </c>
+      <c r="R29">
+        <v>3.577054730056</v>
+      </c>
+      <c r="S29">
+        <v>0.0108228808869798</v>
+      </c>
+      <c r="T29">
+        <v>0.0108228808869798</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.223082</v>
+      </c>
+      <c r="I30">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J30">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>6.253313666666667</v>
+      </c>
+      <c r="N30">
+        <v>18.759941</v>
+      </c>
+      <c r="O30">
+        <v>0.3319678898978669</v>
+      </c>
+      <c r="P30">
+        <v>0.3319678898978669</v>
+      </c>
+      <c r="Q30">
+        <v>0.4650005731291112</v>
+      </c>
+      <c r="R30">
+        <v>4.185005158162</v>
+      </c>
+      <c r="S30">
+        <v>0.01266232019253289</v>
+      </c>
+      <c r="T30">
+        <v>0.01266232019253289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.223082</v>
+      </c>
+      <c r="I31">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J31">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.08853533333333334</v>
+      </c>
+      <c r="N31">
+        <v>0.265606</v>
+      </c>
+      <c r="O31">
+        <v>0.004700050142173305</v>
+      </c>
+      <c r="P31">
+        <v>0.004700050142173305</v>
+      </c>
+      <c r="Q31">
+        <v>0.006583546410222223</v>
+      </c>
+      <c r="R31">
+        <v>0.059251917692</v>
+      </c>
+      <c r="S31">
+        <v>0.0001792749890342348</v>
+      </c>
+      <c r="T31">
+        <v>0.0001792749890342348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H32">
+        <v>1.273819</v>
+      </c>
+      <c r="I32">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J32">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.498887</v>
+      </c>
+      <c r="N32">
+        <v>1.496661</v>
+      </c>
+      <c r="O32">
+        <v>0.02648427274171232</v>
+      </c>
+      <c r="P32">
+        <v>0.02648427274171232</v>
+      </c>
+      <c r="Q32">
+        <v>0.2118305798176667</v>
+      </c>
+      <c r="R32">
+        <v>1.906475218359</v>
+      </c>
+      <c r="S32">
+        <v>0.005768308219861997</v>
+      </c>
+      <c r="T32">
+        <v>0.005768308219861997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H33">
+        <v>1.273819</v>
+      </c>
+      <c r="I33">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J33">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.885272666666667</v>
+      </c>
+      <c r="N33">
+        <v>5.655818</v>
+      </c>
+      <c r="O33">
+        <v>0.1000829356076532</v>
+      </c>
+      <c r="P33">
+        <v>0.1000829356076532</v>
+      </c>
+      <c r="Q33">
+        <v>0.8004987143268889</v>
+      </c>
+      <c r="R33">
+        <v>7.204488428942001</v>
+      </c>
+      <c r="S33">
+        <v>0.02179819041148492</v>
+      </c>
+      <c r="T33">
+        <v>0.02179819041148492</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H34">
+        <v>1.273819</v>
+      </c>
+      <c r="I34">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J34">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>4.766192666666667</v>
+      </c>
+      <c r="N34">
+        <v>14.298578</v>
+      </c>
+      <c r="O34">
+        <v>0.2530215189482771</v>
+      </c>
+      <c r="P34">
+        <v>0.2530215189482771</v>
+      </c>
+      <c r="Q34">
+        <v>2.023755592153556</v>
+      </c>
+      <c r="R34">
+        <v>18.213800329382</v>
+      </c>
+      <c r="S34">
+        <v>0.05510840798934288</v>
+      </c>
+      <c r="T34">
+        <v>0.05510840798934288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H35">
+        <v>1.273819</v>
+      </c>
+      <c r="I35">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J35">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>5.344902666666667</v>
+      </c>
+      <c r="N35">
+        <v>16.034708</v>
+      </c>
+      <c r="O35">
+        <v>0.2837433326623173</v>
+      </c>
+      <c r="P35">
+        <v>0.2837433326623173</v>
+      </c>
+      <c r="Q35">
+        <v>2.269479523316889</v>
+      </c>
+      <c r="R35">
+        <v>20.425315709852</v>
+      </c>
+      <c r="S35">
+        <v>0.06179965801172538</v>
+      </c>
+      <c r="T35">
+        <v>0.06179965801172538</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H36">
+        <v>1.273819</v>
+      </c>
+      <c r="I36">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J36">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>6.253313666666667</v>
+      </c>
+      <c r="N36">
+        <v>18.759941</v>
+      </c>
+      <c r="O36">
+        <v>0.3319678898978669</v>
+      </c>
+      <c r="P36">
+        <v>0.3319678898978669</v>
+      </c>
+      <c r="Q36">
+        <v>2.655196587186556</v>
+      </c>
+      <c r="R36">
+        <v>23.896769284679</v>
+      </c>
+      <c r="S36">
+        <v>0.07230302778947677</v>
+      </c>
+      <c r="T36">
+        <v>0.07230302778947677</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H37">
+        <v>1.273819</v>
+      </c>
+      <c r="I37">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J37">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M37">
+        <v>0.08853533333333334</v>
+      </c>
+      <c r="N37">
+        <v>0.265606</v>
+      </c>
+      <c r="O37">
+        <v>0.004700050142173305</v>
+      </c>
+      <c r="P37">
+        <v>0.004700050142173305</v>
+      </c>
+      <c r="Q37">
+        <v>0.03759266325711112</v>
+      </c>
+      <c r="R37">
+        <v>0.338333969314</v>
+      </c>
+      <c r="S37">
+        <v>0.001023676886779749</v>
+      </c>
+      <c r="T37">
+        <v>0.001023676886779749</v>
       </c>
     </row>
   </sheetData>
